--- a/classfiers/chain/MLP/smote/chain-mlp-smote-results.xlsx
+++ b/classfiers/chain/MLP/smote/chain-mlp-smote-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9913419913419913</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9956521739130434</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9621848739495799</v>
+        <v>0.9203187250996016</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9807280513918629</v>
+        <v>0.95850622406639</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9781855825334086</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9704641350210971</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9850107066381156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9949876590089234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999620277197645</v>
+        <v>0.9996975425330813</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998665166568144</v>
+        <v>0.9956899810964084</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9797783365765552</v>
+        <v>0.9713476883303935</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9897191951987498</v>
+        <v>0.9852624779789629</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989632406771005</v>
+        <v>0.9947146212325796</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/MLP/smote/chain-mlp-smote-results.xlsx
+++ b/classfiers/chain/MLP/smote/chain-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6798561151079137</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7907949790794978</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.878975</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9203187250996016</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95850622406639</v>
+        <v>0.9389920424403183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9781855825334086</v>
+        <v>0.9785250000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9704641350210971</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9850107066381156</v>
+        <v>0.9417989417989417</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9364500000000001</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.9572192513368984</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9250645994832042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996975425330813</v>
+        <v>0.9196482412060302</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8894472361809045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9340369393139842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956899810964084</v>
+        <v>0.9681658291457287</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9713476883303935</v>
+        <v>0.924081739955629</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.900889447236181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9852624779789629</v>
+        <v>0.9061375004231893</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9947146212325796</v>
+        <v>0.9363528140703519</v>
       </c>
     </row>
   </sheetData>
